--- a/teachings/stats/_stats/dim2/oxfordpots_data.xlsx
+++ b/teachings/stats/_stats/dim2/oxfordpots_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\thomashuet\teachings\stats\_stats\dim2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0082411-28D3-4122-8A59-5E1000B0BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911333D9-66E6-4F35-B0CF-EDB6E281A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{367051DD-60D3-49D0-9F2F-1A07387D50A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
   <si>
     <t>Parameter</t>
   </si>
@@ -801,26 +801,14 @@
     <t>lon</t>
   </si>
   <si>
-    <t>-1.349167</t>
-  </si>
-  <si>
-    <t>-1.079722</t>
-  </si>
-  <si>
-    <t>-0.9041667</t>
-  </si>
-  <si>
-    <t>-0.3394444</t>
-  </si>
-  <si>
-    <t>-0.5108333</t>
+    <t>-1.795556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +827,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -888,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -901,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632880A3-AF0F-4FE3-87A6-74B1DCDEB8C9}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1297,7 @@
         <v>50.716670000000001</v>
       </c>
       <c r="J2">
-        <v>2.4333330000000002</v>
+        <v>-2.4333330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1330,7 @@
         <v>51.005830000000003</v>
       </c>
       <c r="J3">
-        <v>2.6797219999999999</v>
+        <v>-2.6797219999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1356,11 +1359,11 @@
       <c r="H4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I4">
-        <v>51.375</v>
-      </c>
-      <c r="J4">
-        <v>2.3616670000000002</v>
+      <c r="I4" s="6">
+        <v>51.38</v>
+      </c>
+      <c r="J4" s="7">
+        <v>-2.36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1393,7 +1396,7 @@
         <v>50.648609999999998</v>
       </c>
       <c r="J5">
-        <v>1.3113889999999999</v>
+        <v>-1.3113889999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1425,8 +1428,8 @@
       <c r="I6" s="4">
         <v>52.344439999999999</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>258</v>
+      <c r="J6" s="5">
+        <v>0.51083330000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1458,8 +1461,8 @@
       <c r="I7">
         <v>51.06917</v>
       </c>
-      <c r="J7">
-        <v>1.7955559999999999</v>
+      <c r="J7" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1492,7 +1495,7 @@
         <v>51.064999999999998</v>
       </c>
       <c r="J8">
-        <v>1.318611</v>
+        <v>-1.318611</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1528,7 @@
         <v>50.841670000000001</v>
       </c>
       <c r="J9">
-        <v>1.1202780000000001</v>
+        <v>-1.1202780000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1557,8 +1560,8 @@
       <c r="I10" s="4">
         <v>50.81944</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>257</v>
+      <c r="J10" s="5">
+        <v>0.33944439999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1591,7 +1594,7 @@
         <v>50.835830000000001</v>
       </c>
       <c r="J11">
-        <v>0.41222219999999998</v>
+        <v>-0.41222219999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1624,7 +1627,7 @@
         <v>50.836669999999998</v>
       </c>
       <c r="J12">
-        <v>0.78</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1657,7 +1660,7 @@
         <v>50.917999999999999</v>
       </c>
       <c r="J13">
-        <v>1.3834</v>
+        <v>-1.3834</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,7 +1726,7 @@
         <v>51.35333</v>
       </c>
       <c r="J15">
-        <v>1.1005560000000001</v>
+        <v>-1.1005560000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1752,11 +1755,11 @@
       <c r="H16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I16">
-        <v>51.611109999999996</v>
+      <c r="I16" s="6">
+        <v>51.610999999999997</v>
       </c>
       <c r="J16">
-        <v>2.7686109999999999</v>
+        <v>-2.7650000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1885,7 +1888,7 @@
         <v>51.75</v>
       </c>
       <c r="J20">
-        <v>0.35389999999999999</v>
+        <v>-0.35389999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1918,7 +1921,7 @@
         <v>51.508330000000001</v>
       </c>
       <c r="J21">
-        <v>0.12555559999999999</v>
+        <v>-0.12555559999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1950,8 +1953,8 @@
       <c r="I22" s="4">
         <v>51.310279999999999</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>254</v>
+      <c r="J22" s="5">
+        <v>1.349167</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,8 +1986,8 @@
       <c r="I23" s="4">
         <v>51.278889999999997</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>255</v>
+      <c r="J23" s="5">
+        <v>1.0797220000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2016,8 +2019,8 @@
       <c r="I24" s="4">
         <v>51.88917</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>256</v>
+      <c r="J24" s="5">
+        <v>0.90416669999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2080,10 +2083,10 @@
         <v>232</v>
       </c>
       <c r="I26">
-        <v>52.648060000000001</v>
-      </c>
-      <c r="J26">
-        <v>1.726389</v>
+        <v>52.648127161134902</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1.7297023591218801</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2215,7 +2218,7 @@
         <v>51.646940000000001</v>
       </c>
       <c r="J30">
-        <v>1.1675</v>
+        <v>-1.1675</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2248,12 +2251,13 @@
         <v>51.877536999999997</v>
       </c>
       <c r="J31">
-        <v>1.1709860000000001</v>
+        <v>-1.1709860000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/teachings/stats/_stats/dim2/oxfordpots_data.xlsx
+++ b/teachings/stats/_stats/dim2/oxfordpots_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\thomashuet\teachings\stats\_stats\dim2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911333D9-66E6-4F35-B0CF-EDB6E281A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A64671-16BC-4568-97A1-61F52AF0ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{367051DD-60D3-49D0-9F2F-1A07387D50A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
   <si>
     <t>Parameter</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>lon</t>
-  </si>
-  <si>
-    <t>-1.795556</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632880A3-AF0F-4FE3-87A6-74B1DCDEB8C9}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,10 +1456,10 @@
         <v>200</v>
       </c>
       <c r="I7">
-        <v>51.06917</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>254</v>
+        <v>51.080034581772402</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-1.79907378558037</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1693,7 +1690,7 @@
         <v>51.222045000000001</v>
       </c>
       <c r="J14">
-        <v>1.441484</v>
+        <v>-1.441484</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
